--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1222366.36632945</v>
+        <v>-1224922.663503049</v>
       </c>
     </row>
     <row r="7">
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9338715566937</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.7321536188797</v>
       </c>
       <c r="I2" t="n">
-        <v>42.04518470759564</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.464536558263</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9711388310543</v>
       </c>
       <c r="U2" t="n">
-        <v>250.9961436311612</v>
+        <v>182.0865889238029</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>62.67324619652211</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>29.73950183838966</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>99.32179908596966</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0312564930842</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.803454668018</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.51626366671985</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>89.17712508496183</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5722280944081</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2121353820159</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,19 +896,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>63.62961741666688</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -953,16 +953,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>282.1941140986265</v>
       </c>
       <c r="W5" t="n">
-        <v>105.5920335142164</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>250.7929012452241</v>
       </c>
     </row>
     <row r="6">
@@ -1054,22 +1054,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>31.73783249628705</v>
       </c>
       <c r="V7" t="n">
-        <v>213.5118008639649</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>42.76773080618901</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>324.3723742885371</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>110.7115619691727</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>111.9187566128687</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>31.39650288673342</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>185.4048731212358</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1616,10 +1616,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1774,7 +1774,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>46.15319674220819</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>60.11729550773457</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>140.7215037338434</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,10 +2059,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>75.96788793061754</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176115</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>72.26558381699921</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2950,19 +2950,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>41.74133133758716</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8253826161909023</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3196,16 +3196,16 @@
         <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308922</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3427,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261728</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3664,10 +3664,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065881</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="44">
@@ -4138,10 +4138,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1959.693890253126</v>
+        <v>1476.941635774602</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.731373312715</v>
+        <v>1107.979118834191</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.465674705964</v>
+        <v>749.7134202274401</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.465674705964</v>
+        <v>363.9251676291959</v>
       </c>
       <c r="F2" t="n">
-        <v>821.4797699163569</v>
+        <v>363.9251676291959</v>
       </c>
       <c r="G2" t="n">
-        <v>406.3950511722218</v>
+        <v>363.9251676291959</v>
       </c>
       <c r="H2" t="n">
-        <v>108.6858050925453</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="I2" t="n">
-        <v>66.21592154951944</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="J2" t="n">
-        <v>254.0744928369591</v>
+        <v>254.0744928369593</v>
       </c>
       <c r="K2" t="n">
-        <v>586.3643121319017</v>
+        <v>586.3643121319019</v>
       </c>
       <c r="L2" t="n">
         <v>1035.500977900981</v>
@@ -4349,31 +4349,31 @@
         <v>3005.546484356408</v>
       </c>
       <c r="Q2" t="n">
-        <v>3252.534341412641</v>
+        <v>3252.53434141264</v>
       </c>
       <c r="R2" t="n">
-        <v>3310.796077475972</v>
+        <v>3310.796077475971</v>
       </c>
       <c r="S2" t="n">
-        <v>3200.225838528231</v>
+        <v>3310.796077475971</v>
       </c>
       <c r="T2" t="n">
-        <v>2994.19438516353</v>
+        <v>3104.76462411127</v>
       </c>
       <c r="U2" t="n">
-        <v>2740.662926950235</v>
+        <v>2920.838776713489</v>
       </c>
       <c r="V2" t="n">
-        <v>2409.600039606665</v>
+        <v>2589.775889369918</v>
       </c>
       <c r="W2" t="n">
-        <v>2346.293730317248</v>
+        <v>2237.007234099804</v>
       </c>
       <c r="X2" t="n">
-        <v>2346.293730317248</v>
+        <v>1863.541475838724</v>
       </c>
       <c r="Y2" t="n">
-        <v>2346.293730317248</v>
+        <v>1863.541475838724</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3156003142899</v>
+        <v>1687.281923832321</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8625710331629</v>
+        <v>1512.828894551194</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9281613719115</v>
+        <v>1363.894484889943</v>
       </c>
       <c r="E3" t="n">
-        <v>448.690706366456</v>
+        <v>1204.657029884487</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1561483933411</v>
+        <v>1058.122471911372</v>
       </c>
       <c r="G3" t="n">
-        <v>165.7864839520668</v>
+        <v>921.7528074700978</v>
       </c>
       <c r="H3" t="n">
-        <v>75.22119252365755</v>
+        <v>831.1875160416885</v>
       </c>
       <c r="I3" t="n">
-        <v>66.21592154951944</v>
+        <v>822.18224506755</v>
       </c>
       <c r="J3" t="n">
-        <v>159.2853526912741</v>
+        <v>915.2516762093044</v>
       </c>
       <c r="K3" t="n">
-        <v>396.510659118347</v>
+        <v>1152.476982636377</v>
       </c>
       <c r="L3" t="n">
-        <v>761.8119001858311</v>
+        <v>1517.778223703861</v>
       </c>
       <c r="M3" t="n">
-        <v>1207.458086537445</v>
+        <v>1963.424410055475</v>
       </c>
       <c r="N3" t="n">
-        <v>1679.307846295919</v>
+        <v>2435.274169813949</v>
       </c>
       <c r="O3" t="n">
-        <v>2088.738397943176</v>
+        <v>2844.704721461206</v>
       </c>
       <c r="P3" t="n">
-        <v>2398.00944543187</v>
+        <v>3153.9757689499</v>
       </c>
       <c r="Q3" t="n">
-        <v>2554.829753957941</v>
+        <v>3310.796077475971</v>
       </c>
       <c r="R3" t="n">
-        <v>2554.829753957941</v>
+        <v>3310.796077475971</v>
       </c>
       <c r="S3" t="n">
-        <v>2425.269938942937</v>
+        <v>3181.236262460967</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.600479990498</v>
+        <v>2988.566803508528</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.532201264789</v>
+        <v>2760.49852478282</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.380093033046</v>
+        <v>2525.346416551077</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.142736304845</v>
+        <v>2271.109059822876</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.291236099312</v>
+        <v>2063.257559617343</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.530937334358</v>
+        <v>1855.497260852389</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>946.458196687745</v>
+        <v>1997.771671047416</v>
       </c>
       <c r="C4" t="n">
-        <v>777.5220137598382</v>
+        <v>1997.771671047416</v>
       </c>
       <c r="D4" t="n">
-        <v>627.4053743475024</v>
+        <v>1847.65503163508</v>
       </c>
       <c r="E4" t="n">
-        <v>527.0803247657149</v>
+        <v>1699.741938052687</v>
       </c>
       <c r="F4" t="n">
-        <v>380.1903772678045</v>
+        <v>1552.851990554777</v>
       </c>
       <c r="G4" t="n">
-        <v>212.4820373758002</v>
+        <v>1552.851990554777</v>
       </c>
       <c r="H4" t="n">
-        <v>66.21592154951944</v>
+        <v>1552.851990554777</v>
       </c>
       <c r="I4" t="n">
-        <v>66.21592154951944</v>
+        <v>1455.360815133848</v>
       </c>
       <c r="J4" t="n">
-        <v>110.9572157501788</v>
+        <v>1500.102109334507</v>
       </c>
       <c r="K4" t="n">
-        <v>314.3177428179429</v>
+        <v>1703.462636402271</v>
       </c>
       <c r="L4" t="n">
-        <v>630.0756374886839</v>
+        <v>2019.220531073012</v>
       </c>
       <c r="M4" t="n">
-        <v>973.3871879897964</v>
+        <v>2362.532081574125</v>
       </c>
       <c r="N4" t="n">
-        <v>1313.970173580891</v>
+        <v>2703.115067165219</v>
       </c>
       <c r="O4" t="n">
-        <v>1612.537390213391</v>
+        <v>3001.682283797719</v>
       </c>
       <c r="P4" t="n">
-        <v>1844.49254089413</v>
+        <v>3233.637434478459</v>
       </c>
       <c r="Q4" t="n">
-        <v>1921.651183891643</v>
+        <v>3310.796077475971</v>
       </c>
       <c r="R4" t="n">
-        <v>1831.573279765419</v>
+        <v>3310.796077475971</v>
       </c>
       <c r="S4" t="n">
-        <v>1831.573279765419</v>
+        <v>3310.796077475971</v>
       </c>
       <c r="T4" t="n">
-        <v>1831.573279765419</v>
+        <v>3089.00594808768</v>
       </c>
       <c r="U4" t="n">
-        <v>1831.573279765419</v>
+        <v>2799.902781035139</v>
       </c>
       <c r="V4" t="n">
-        <v>1576.888791559532</v>
+        <v>2545.218292829252</v>
       </c>
       <c r="W4" t="n">
-        <v>1576.888791559532</v>
+        <v>2255.801122792292</v>
       </c>
       <c r="X4" t="n">
-        <v>1348.899240661515</v>
+        <v>2027.811571894274</v>
       </c>
       <c r="Y4" t="n">
-        <v>1128.106661517985</v>
+        <v>2027.811571894274</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1213.898819086399</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1213.898819086399</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
         <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,13 +4562,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4577,40 +4577,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3261.333480784254</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3055.355733168476</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U5" t="n">
-        <v>2801.825256442313</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V5" t="n">
-        <v>2470.762369098742</v>
+        <v>2581.053037571646</v>
       </c>
       <c r="W5" t="n">
-        <v>2364.103749387412</v>
+        <v>2581.053037571646</v>
       </c>
       <c r="X5" t="n">
-        <v>1990.637991126332</v>
+        <v>2581.053037571646</v>
       </c>
       <c r="Y5" t="n">
-        <v>1600.498659150521</v>
+        <v>2327.726874697682</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4635,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>531.7821255545682</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="C7" t="n">
-        <v>362.8459426266613</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D7" t="n">
-        <v>212.7293032143256</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143256</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4756,19 +4756,19 @@
         <v>1735.608663915319</v>
       </c>
       <c r="U7" t="n">
-        <v>1446.505797040963</v>
+        <v>1703.550247252403</v>
       </c>
       <c r="V7" t="n">
-        <v>1230.837311319786</v>
+        <v>1448.865759046516</v>
       </c>
       <c r="W7" t="n">
-        <v>941.4201412828253</v>
+        <v>1159.448589009555</v>
       </c>
       <c r="X7" t="n">
-        <v>713.4305903848079</v>
+        <v>931.4590381115378</v>
       </c>
       <c r="Y7" t="n">
-        <v>713.4305903848079</v>
+        <v>710.6664589680076</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.939223126803</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W8" t="n">
-        <v>2381.544313363695</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="X8" t="n">
-        <v>2008.078555102614</v>
+        <v>2413.363594621723</v>
       </c>
       <c r="Y8" t="n">
-        <v>1617.939223126803</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4887,16 +4887,16 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548192</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269123</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732712</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="Y10" t="n">
-        <v>645.3078929297411</v>
+        <v>477.7578170212613</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5033,19 +5033,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5054,25 +5054,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,16 +5112,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L12" t="n">
         <v>776.1751066403293</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2165.348906208039</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1876.273679552237</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1621.58919134635</v>
       </c>
       <c r="W13" t="n">
-        <v>1688.385853854706</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="14">
@@ -5264,7 +5264,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5276,7 +5276,7 @@
         <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5291,7 +5291,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,22 +5352,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>916.3099000622248</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>747.3737171343179</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>597.2570777219821</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>449.343984139589</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>449.343984139589</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>282.1478848544689</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>140.436053696667</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.052681478294</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038326</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797726</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832661</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832661</v>
+        <v>2264.108249235163</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832661</v>
+        <v>2044.506784258104</v>
       </c>
       <c r="U16" t="n">
-        <v>2090.842153176859</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V16" t="n">
-        <v>1836.157664970973</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W16" t="n">
-        <v>1546.740494934012</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>1318.750944035995</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>1097.958364892464</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5519,13 +5519,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2237.774446768175</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2018.172981791116</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1729.097755135313</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5738,19 +5738,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>214.9229991561138</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>945.402603663004</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>776.4664207350971</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>626.3497813227614</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5975,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,31 +6215,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6598,16 +6598,16 @@
         <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>261.8464821474262</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
         <v>411.2214559580113</v>
@@ -6853,16 +6853,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6877,22 +6877,22 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,28 +7117,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7163,19 +7163,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7257,22 +7257,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311323</v>
@@ -7354,25 +7354,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,7 +7406,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7549,22 +7549,22 @@
         <v>782.5512955656815</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
@@ -7573,7 +7573,7 @@
         <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,10 +7588,10 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7606,7 +7606,7 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
         <v>1280.338681582389</v>
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9338715566937</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>42.04518470759564</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,22 +22595,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.464536558263</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>68.90955470735832</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>286.5677225208909</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>150.0924783435476</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>47.11216356059951</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0312564930842</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.803454668018</v>
       </c>
       <c r="I4" t="n">
-        <v>96.51626366671985</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,28 +22750,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>89.17712508496183</v>
       </c>
       <c r="S4" t="n">
         <v>189.8639731922165</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5722280944081</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2121353820159</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22832,7 +22832,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>45.55814437150895</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -22841,7 +22841,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>45.5581443715084</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986265</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23467,19 +23467,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>186.0089474405548</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>40.30478226780136</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>35.11263957635735</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>226.0671788815096</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>40.30478226780122</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,10 +23947,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>70.46607471595163</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>213.9188905722449</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24838,19 +24838,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>145.6085800303783</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>-5.846434575361833e-13</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1049772.234879942</v>
+        <v>1049772.234879941</v>
       </c>
     </row>
     <row r="3">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1242487.499862494</v>
+        <v>1242487.499862493</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1242487.499862494</v>
+        <v>1242487.499862493</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1242487.499862494</v>
+        <v>1242487.499862493</v>
       </c>
     </row>
     <row r="12">
@@ -26326,16 +26326,16 @@
         <v>181607.9849302513</v>
       </c>
       <c r="G2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="H2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="I2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="J2" t="n">
-        <v>181607.9849302513</v>
+        <v>181607.9849302515</v>
       </c>
       <c r="K2" t="n">
         <v>181607.9849302513</v>
@@ -26347,10 +26347,10 @@
         <v>184734.3982194636</v>
       </c>
       <c r="N2" t="n">
+        <v>184734.3982194637</v>
+      </c>
+      <c r="O2" t="n">
         <v>184734.3982194636</v>
-      </c>
-      <c r="O2" t="n">
-        <v>184734.3982194637</v>
       </c>
       <c r="P2" t="n">
         <v>184734.3982194636</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>952.8885570182784</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363179</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>89504.10908220281</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316941</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26436,7 +26436,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181817</v>
       </c>
       <c r="J4" t="n">
         <v>12386.92018181813</v>
@@ -26445,19 +26445,19 @@
         <v>12386.92018181815</v>
       </c>
       <c r="L4" t="n">
-        <v>20377.77944491163</v>
+        <v>20377.77944491162</v>
       </c>
       <c r="M4" t="n">
-        <v>20377.77944491163</v>
+        <v>20377.77944491159</v>
       </c>
       <c r="N4" t="n">
-        <v>20377.7794449116</v>
+        <v>20377.77944491159</v>
       </c>
       <c r="O4" t="n">
+        <v>20377.77944491161</v>
+      </c>
+      <c r="P4" t="n">
         <v>20377.77944491159</v>
-      </c>
-      <c r="P4" t="n">
-        <v>20377.7794449116</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1291515.244982078</v>
+        <v>-1291866.261927065</v>
       </c>
       <c r="C6" t="n">
-        <v>-17466.94217984147</v>
+        <v>-17476.00825057138</v>
       </c>
       <c r="D6" t="n">
-        <v>-14773.49729509892</v>
+        <v>-14773.4972950989</v>
       </c>
       <c r="E6" t="n">
-        <v>-257313.926882829</v>
+        <v>-257348.6648082649</v>
       </c>
       <c r="F6" t="n">
-        <v>68098.53492452604</v>
+        <v>68063.79699909041</v>
       </c>
       <c r="G6" t="n">
-        <v>68098.53492452613</v>
+        <v>68063.79699909041</v>
       </c>
       <c r="H6" t="n">
-        <v>68098.53492452619</v>
+        <v>68063.79699909041</v>
       </c>
       <c r="I6" t="n">
-        <v>68098.53492452619</v>
+        <v>68063.79699909039</v>
       </c>
       <c r="J6" t="n">
-        <v>-148463.9472992547</v>
+        <v>-148498.6852246903</v>
       </c>
       <c r="K6" t="n">
-        <v>67145.6463675078</v>
+        <v>67110.9084420721</v>
       </c>
       <c r="L6" t="n">
-        <v>41764.7849270048</v>
+        <v>41764.78492700483</v>
       </c>
       <c r="M6" t="n">
-        <v>-23862.52501487522</v>
+        <v>-23862.52501487527</v>
       </c>
       <c r="N6" t="n">
-        <v>61192.50292063659</v>
+        <v>61192.50292063667</v>
       </c>
       <c r="O6" t="n">
+        <v>61192.50292063656</v>
+      </c>
+      <c r="P6" t="n">
         <v>61192.50292063667</v>
-      </c>
-      <c r="P6" t="n">
-        <v>61192.50292063665</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>827.6990193689929</v>
+        <v>827.6990193689928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>827.6990193689929</v>
+        <v>827.6990193689928</v>
       </c>
       <c r="C4" t="n">
         <v>3.702436033299705</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>827.6990193689928</v>
+        <v>827.699019368993</v>
       </c>
       <c r="K4" t="n">
         <v>3.702436033299705</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>827.6990193689929</v>
+        <v>827.6990193689928</v>
       </c>
       <c r="K4" t="n">
         <v>3.702436033299705</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,19 +27616,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>243.6489352031966</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>135.4450374108295</v>
       </c>
     </row>
     <row r="6">
@@ -27774,22 +27774,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27828,10 +27828,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>254.4740057093258</v>
       </c>
       <c r="V7" t="n">
-        <v>38.62584245986309</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>306.473237911224</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>45.35872638993192</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>69.12041821276463</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>113.7908987761685</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28248,7 +28248,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -28336,10 +28336,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28506,7 +28506,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28524,7 +28524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,19 +31841,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305194</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,10 +32072,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32090,7 +32090,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,13 +32327,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32491,7 +32491,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>260.1710714068256</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32713,7 +32713,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
         <v>965.6463440175675</v>
@@ -32789,10 +32789,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,13 +32801,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>248.3870916262918</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32947,7 +32947,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L26" t="n">
         <v>867.846407116256</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33257,10 +33257,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33269,16 +33269,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>169.2687847673337</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33494,10 +33494,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33898,7 +33898,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33977,25 +33977,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34375,7 +34375,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,19 +35489,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561604</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35738,7 +35738,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295167</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35820,7 +35820,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066232</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,13 +35975,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>122.3296324324666</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36437,10 +36437,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,13 +36449,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>108.4053175402703</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36917,16 +36917,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>27.13475084531539</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37233,7 +37233,7 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,13 +37464,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37546,7 +37546,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
